--- a/doc/BOM.xlsx
+++ b/doc/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -249,6 +249,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,7 +523,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,7 +559,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="2">
-        <f>C2*B2</f>
+        <f t="shared" ref="D2:D16" si="0">C2*B2</f>
         <v>234</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -574,7 +577,7 @@
         <v>69</v>
       </c>
       <c r="D3" s="2">
-        <f>C3*B3</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -592,7 +595,7 @@
         <v>66.569999999999993</v>
       </c>
       <c r="D4" s="2">
-        <f>C4*B4</f>
+        <f t="shared" si="0"/>
         <v>66.569999999999993</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -610,7 +613,7 @@
         <v>24.44</v>
       </c>
       <c r="D5" s="2">
-        <f>C5*B5</f>
+        <f t="shared" si="0"/>
         <v>24.44</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -628,7 +631,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="D6" s="2">
-        <f>C6*B6</f>
+        <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -646,7 +649,7 @@
         <v>12.47</v>
       </c>
       <c r="D7" s="2">
-        <f>C7*B7</f>
+        <f t="shared" si="0"/>
         <v>12.47</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -664,7 +667,7 @@
         <v>9.99</v>
       </c>
       <c r="D8" s="2">
-        <f>C8*B8</f>
+        <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -682,7 +685,7 @@
         <v>8.98</v>
       </c>
       <c r="D9" s="2">
-        <f>C9*B9</f>
+        <f t="shared" si="0"/>
         <v>8.98</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -700,7 +703,7 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="D10" s="2">
-        <f>C10*B10</f>
+        <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -718,7 +721,7 @@
         <v>4.49</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*B11</f>
+        <f t="shared" si="0"/>
         <v>4.49</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -733,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <f>C12*B12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -748,7 +751,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <f>C13*B13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -763,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2">
-        <f>C14*B14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -778,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2">
-        <f>C15*B15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -796,7 +799,7 @@
         <v>7.99</v>
       </c>
       <c r="D16" s="2">
-        <f>C16*B16</f>
+        <f t="shared" si="0"/>
         <v>7.99</v>
       </c>
       <c r="E16" s="1" t="s">
